--- a/data.xlsx
+++ b/data.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文件\作品集\In plume scavenging\Data_Shanghai_Plume_Plot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data_Shanghai_Plume_Plot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9648" tabRatio="898" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9648" tabRatio="898" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="20171219-urban" sheetId="6" r:id="rId1"/>
     <sheet name="20171221-highway" sheetId="7" r:id="rId2"/>
-    <sheet name="20171221-upper air" sheetId="8" r:id="rId3"/>
-    <sheet name="20171222-AM1" sheetId="9" r:id="rId4"/>
-    <sheet name="20171222-AM2" sheetId="12" r:id="rId5"/>
-    <sheet name="20171222-PM1" sheetId="10" r:id="rId6"/>
-    <sheet name="20171222-PM2" sheetId="11" r:id="rId7"/>
-    <sheet name="Size" sheetId="13" r:id="rId8"/>
+    <sheet name="20171221-AM" sheetId="14" r:id="rId3"/>
+    <sheet name="20171221-PM" sheetId="8" r:id="rId4"/>
+    <sheet name="20171222-AM1" sheetId="9" r:id="rId5"/>
+    <sheet name="20171222-AM2" sheetId="12" r:id="rId6"/>
+    <sheet name="20171222-PM1" sheetId="10" r:id="rId7"/>
+    <sheet name="20171222-PM2" sheetId="11" r:id="rId8"/>
+    <sheet name="Size" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="9">
   <si>
     <t>Date Time</t>
   </si>
@@ -55,6 +56,10 @@
   </si>
   <si>
     <t>&gt;100 nm</t>
+  </si>
+  <si>
+    <t>GMD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -110,7 +115,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -144,6 +149,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -428,7 +436,7 @@
   <dimension ref="A1:R601"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="R1" activeCellId="1" sqref="Q1:Q1048576 R1:R1048576"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -36506,8 +36514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -38621,10 +38629,700 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.109375" style="8" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="C1" s="3">
+        <v>15.4</v>
+      </c>
+      <c r="D1" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="E1" s="3">
+        <v>27.4</v>
+      </c>
+      <c r="F1" s="3">
+        <v>36.5</v>
+      </c>
+      <c r="G1" s="3">
+        <v>48.7</v>
+      </c>
+      <c r="H1" s="3">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="I1" s="3">
+        <v>86.6</v>
+      </c>
+      <c r="J1" s="3">
+        <v>115.5</v>
+      </c>
+      <c r="K1" s="3">
+        <v>154</v>
+      </c>
+      <c r="L1" s="3">
+        <v>205.4</v>
+      </c>
+      <c r="M1" s="3">
+        <v>273.8</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>43090.316666666666</v>
+      </c>
+      <c r="B2" s="2">
+        <v>23.786999999999999</v>
+      </c>
+      <c r="C2" s="2">
+        <v>27.476099999999999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>20.9697</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43.728700000000003</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>142.35050000000001</v>
+      </c>
+      <c r="I2" s="2">
+        <v>489.25940000000003</v>
+      </c>
+      <c r="J2" s="2">
+        <v>867.99400000000003</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1071.5442</v>
+      </c>
+      <c r="L2" s="2">
+        <v>994.7568</v>
+      </c>
+      <c r="M2" s="2">
+        <v>709.49580000000003</v>
+      </c>
+      <c r="N2" s="2">
+        <v>4767.1450000000004</v>
+      </c>
+      <c r="O2" s="2">
+        <v>179.34719999999999</v>
+      </c>
+      <c r="P2" s="2">
+        <f>EXP((B2*LN($B$1)+C2*LN($C$1)+D2*LN($D$1)+LN($E$1)*E2+LN($F$1)*F2+LN($G$1)*G2+LN($H$1)*H2+LN($I$1)*I2+LN($J$1)*J2+LN($K$1)*K2+LN($L$1)*L2+LN($M$1)*M2)/N2)</f>
+        <v>99.231493677770999</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>43090.317361111112</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5.6186999999999996</v>
+      </c>
+      <c r="C3" s="2">
+        <v>137.81270000000001</v>
+      </c>
+      <c r="D3" s="2">
+        <v>353.96350000000001</v>
+      </c>
+      <c r="E3" s="2">
+        <v>591.25599999999997</v>
+      </c>
+      <c r="F3" s="2">
+        <v>555.29740000000004</v>
+      </c>
+      <c r="G3" s="2">
+        <v>444.20530000000002</v>
+      </c>
+      <c r="H3" s="2">
+        <v>468.57240000000002</v>
+      </c>
+      <c r="I3" s="2">
+        <v>691.51390000000004</v>
+      </c>
+      <c r="J3" s="2">
+        <v>971.78150000000005</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1025.4982</v>
+      </c>
+      <c r="L3" s="2">
+        <v>787.24549999999999</v>
+      </c>
+      <c r="M3" s="2">
+        <v>460.82639999999998</v>
+      </c>
+      <c r="N3" s="2">
+        <v>6803.3870999999999</v>
+      </c>
+      <c r="O3" s="2">
+        <v>121.8498</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" ref="P3:P12" si="0">EXP((B3*LN($B$1)+C3*LN($C$1)+D3*LN($D$1)+LN($E$1)*E3+LN($F$1)*F3+LN($G$1)*G3+LN($H$1)*H3+LN($I$1)*I3+LN($J$1)*J3+LN($K$1)*K3+LN($L$1)*L3+LN($M$1)*M3)/N3)</f>
+        <v>68.331516173656027</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>43090.318055555559</v>
+      </c>
+      <c r="B4" s="2">
+        <v>27.535599999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>75.3964</v>
+      </c>
+      <c r="D4" s="2">
+        <v>191.71619999999999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>408.3877</v>
+      </c>
+      <c r="F4" s="2">
+        <v>387.49790000000002</v>
+      </c>
+      <c r="G4" s="2">
+        <v>267.45659999999998</v>
+      </c>
+      <c r="H4" s="2">
+        <v>234.59899999999999</v>
+      </c>
+      <c r="I4" s="2">
+        <v>370.99209999999999</v>
+      </c>
+      <c r="J4" s="2">
+        <v>606.7876</v>
+      </c>
+      <c r="K4" s="2">
+        <v>691.23779999999999</v>
+      </c>
+      <c r="L4" s="2">
+        <v>559.24599999999998</v>
+      </c>
+      <c r="M4" s="2">
+        <v>464.64699999999999</v>
+      </c>
+      <c r="N4" s="2">
+        <v>4961.1696000000002</v>
+      </c>
+      <c r="O4" s="2">
+        <v>152.47829999999999</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" si="0"/>
+        <v>48.148340337808619</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>43090.318749999999</v>
+      </c>
+      <c r="B5" s="2">
+        <v>23.403500000000001</v>
+      </c>
+      <c r="C5" s="2">
+        <v>27.700500000000002</v>
+      </c>
+      <c r="D5" s="2">
+        <v>26.231100000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>61.5593</v>
+      </c>
+      <c r="F5" s="2">
+        <v>41.874600000000001</v>
+      </c>
+      <c r="G5" s="2">
+        <v>15.596299999999999</v>
+      </c>
+      <c r="H5" s="2">
+        <v>47.1004</v>
+      </c>
+      <c r="I5" s="2">
+        <v>134.16839999999999</v>
+      </c>
+      <c r="J5" s="2">
+        <v>317.74860000000001</v>
+      </c>
+      <c r="K5" s="2">
+        <v>346.98239999999998</v>
+      </c>
+      <c r="L5" s="2">
+        <v>151.79509999999999</v>
+      </c>
+      <c r="M5" s="2">
+        <v>92.317800000000005</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1806.0266999999999</v>
+      </c>
+      <c r="O5" s="2">
+        <v>197.22329999999999</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="0"/>
+        <v>27.806221922075068</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>43090.319444444445</v>
+      </c>
+      <c r="B6" s="2">
+        <v>21.971900000000002</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20.311299999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>24.136600000000001</v>
+      </c>
+      <c r="E6" s="2">
+        <v>53.0017</v>
+      </c>
+      <c r="F6" s="2">
+        <v>35.899299999999997</v>
+      </c>
+      <c r="G6" s="2">
+        <v>27.159700000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>81.056200000000004</v>
+      </c>
+      <c r="I6" s="2">
+        <v>191.4983</v>
+      </c>
+      <c r="J6" s="2">
+        <v>353.91680000000002</v>
+      </c>
+      <c r="K6" s="2">
+        <v>415.29770000000002</v>
+      </c>
+      <c r="L6" s="2">
+        <v>333.34559999999999</v>
+      </c>
+      <c r="M6" s="2">
+        <v>328.16419999999999</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2493.2521000000002</v>
+      </c>
+      <c r="O6" s="2">
+        <v>205.34440000000001</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="0"/>
+        <v>39.633097636004507</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>43090.320138888892</v>
+      </c>
+      <c r="B7" s="2">
+        <v>11.632400000000001</v>
+      </c>
+      <c r="C7" s="2">
+        <v>32.157200000000003</v>
+      </c>
+      <c r="D7" s="2">
+        <v>20.125699999999998</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9.5710999999999995</v>
+      </c>
+      <c r="G7" s="2">
+        <v>95.239400000000003</v>
+      </c>
+      <c r="H7" s="2">
+        <v>221.60400000000001</v>
+      </c>
+      <c r="I7" s="2">
+        <v>328.00360000000001</v>
+      </c>
+      <c r="J7" s="2">
+        <v>417.10489999999999</v>
+      </c>
+      <c r="K7" s="2">
+        <v>439.11919999999998</v>
+      </c>
+      <c r="L7" s="2">
+        <v>397.26830000000001</v>
+      </c>
+      <c r="M7" s="2">
+        <v>455.2663</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3159.8274000000001</v>
+      </c>
+      <c r="O7" s="2">
+        <v>202.0488</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="0"/>
+        <v>42.301728942162612</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>43090.320833333331</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>89.779600000000002</v>
+      </c>
+      <c r="D8" s="2">
+        <v>159.2792</v>
+      </c>
+      <c r="E8" s="2">
+        <v>137.87780000000001</v>
+      </c>
+      <c r="F8" s="2">
+        <v>112.2047</v>
+      </c>
+      <c r="G8" s="2">
+        <v>136.45410000000001</v>
+      </c>
+      <c r="H8" s="2">
+        <v>239.6574</v>
+      </c>
+      <c r="I8" s="2">
+        <v>401.959</v>
+      </c>
+      <c r="J8" s="2">
+        <v>610.92949999999996</v>
+      </c>
+      <c r="K8" s="2">
+        <v>763.96389999999997</v>
+      </c>
+      <c r="L8" s="2">
+        <v>771.64409999999998</v>
+      </c>
+      <c r="M8" s="2">
+        <v>690.71579999999994</v>
+      </c>
+      <c r="N8" s="2">
+        <v>4730.4849999999997</v>
+      </c>
+      <c r="O8" s="2">
+        <v>175.5205</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="0"/>
+        <v>63.618641160505135</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>43090.321527777778</v>
+      </c>
+      <c r="B9" s="2">
+        <v>17.825299999999999</v>
+      </c>
+      <c r="C9" s="2">
+        <v>75.095600000000005</v>
+      </c>
+      <c r="D9" s="2">
+        <v>175.89019999999999</v>
+      </c>
+      <c r="E9" s="2">
+        <v>350.87920000000003</v>
+      </c>
+      <c r="F9" s="2">
+        <v>313.6542</v>
+      </c>
+      <c r="G9" s="2">
+        <v>205.23910000000001</v>
+      </c>
+      <c r="H9" s="2">
+        <v>189.42060000000001</v>
+      </c>
+      <c r="I9" s="2">
+        <v>334.28919999999999</v>
+      </c>
+      <c r="J9" s="2">
+        <v>535.58069999999998</v>
+      </c>
+      <c r="K9" s="2">
+        <v>631.23360000000002</v>
+      </c>
+      <c r="L9" s="2">
+        <v>581.68820000000005</v>
+      </c>
+      <c r="M9" s="2">
+        <v>527.75120000000004</v>
+      </c>
+      <c r="N9" s="2">
+        <v>4561.1016</v>
+      </c>
+      <c r="O9" s="2">
+        <v>159.53280000000001</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="0"/>
+        <v>50.982138084470414</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>43090.322222222225</v>
+      </c>
+      <c r="B10" s="2">
+        <v>24.980799999999999</v>
+      </c>
+      <c r="C10" s="2">
+        <v>24.191400000000002</v>
+      </c>
+      <c r="D10" s="2">
+        <v>29.674099999999999</v>
+      </c>
+      <c r="E10" s="2">
+        <v>98.406999999999996</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100.64619999999999</v>
+      </c>
+      <c r="G10" s="2">
+        <v>64.5505</v>
+      </c>
+      <c r="H10" s="2">
+        <v>65.411900000000003</v>
+      </c>
+      <c r="I10" s="2">
+        <v>133.952</v>
+      </c>
+      <c r="J10" s="2">
+        <v>328.3777</v>
+      </c>
+      <c r="K10" s="2">
+        <v>407.3064</v>
+      </c>
+      <c r="L10" s="2">
+        <v>271.94650000000001</v>
+      </c>
+      <c r="M10" s="2">
+        <v>219.69329999999999</v>
+      </c>
+      <c r="N10" s="2">
+        <v>2329.8989999999999</v>
+      </c>
+      <c r="O10" s="2">
+        <v>192.30690000000001</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="0"/>
+        <v>35.524362442182039</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>43090.322916666664</v>
+      </c>
+      <c r="B11" s="2">
+        <v>8.9356000000000009</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10.9808</v>
+      </c>
+      <c r="D11" s="2">
+        <v>17.557600000000001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>23.305199999999999</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4.0506000000000002</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>41.910200000000003</v>
+      </c>
+      <c r="I11" s="2">
+        <v>168.34440000000001</v>
+      </c>
+      <c r="J11" s="2">
+        <v>400.86849999999998</v>
+      </c>
+      <c r="K11" s="2">
+        <v>575.702</v>
+      </c>
+      <c r="L11" s="2">
+        <v>587.48270000000002</v>
+      </c>
+      <c r="M11" s="2">
+        <v>574.39790000000005</v>
+      </c>
+      <c r="N11" s="2">
+        <v>3117.6487000000002</v>
+      </c>
+      <c r="O11" s="2">
+        <v>220.9111</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="0"/>
+        <v>51.330876292843136</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>43090.323611111111</v>
+      </c>
+      <c r="B12" s="2">
+        <v>17.309000000000001</v>
+      </c>
+      <c r="C12" s="2">
+        <v>17.9664</v>
+      </c>
+      <c r="D12" s="2">
+        <v>13.957000000000001</v>
+      </c>
+      <c r="E12" s="2">
+        <v>16.2927</v>
+      </c>
+      <c r="F12" s="2">
+        <v>22.1616</v>
+      </c>
+      <c r="G12" s="2">
+        <v>35.019100000000002</v>
+      </c>
+      <c r="H12" s="2">
+        <v>117.4158</v>
+      </c>
+      <c r="I12" s="2">
+        <v>308.83969999999999</v>
+      </c>
+      <c r="J12" s="2">
+        <v>667.27639999999997</v>
+      </c>
+      <c r="K12" s="2">
+        <v>970.83450000000005</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1011.0615</v>
+      </c>
+      <c r="M12" s="2">
+        <v>848.14160000000004</v>
+      </c>
+      <c r="N12" s="2">
+        <v>4700.4998999999998</v>
+      </c>
+      <c r="O12" s="2">
+        <v>200.7099</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="0"/>
+        <v>77.924676087241821</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -40092,7 +40790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
@@ -42091,7 +42789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R30"/>
   <sheetViews>
@@ -43907,7 +44605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R16"/>
   <sheetViews>
@@ -44882,12 +45580,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:R20"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -46097,11 +46795,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
